--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H2">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.059282</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N2">
-        <v>6.177846</v>
+        <v>0.005813</v>
       </c>
       <c r="O2">
-        <v>0.9506927780787987</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P2">
-        <v>0.9506927780787987</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q2">
-        <v>1.371125556214</v>
+        <v>0.0005125050826666666</v>
       </c>
       <c r="R2">
-        <v>12.340130005926</v>
+        <v>0.004612545744</v>
       </c>
       <c r="S2">
-        <v>0.002489878324678643</v>
+        <v>2.314688575901954E-05</v>
       </c>
       <c r="T2">
-        <v>0.002489878324678643</v>
+        <v>2.314688575901954E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H3">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I3">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J3">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08230599999999999</v>
+        <v>0.082306</v>
       </c>
       <c r="N3">
         <v>0.246918</v>
       </c>
       <c r="O3">
-        <v>0.03799757381094653</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P3">
-        <v>0.03799757381094653</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q3">
-        <v>0.054801557062</v>
+        <v>0.021769607776</v>
       </c>
       <c r="R3">
-        <v>0.4932140135579999</v>
+        <v>0.195926469984</v>
       </c>
       <c r="S3">
-        <v>9.951620292461179E-05</v>
+        <v>0.0009832070768700475</v>
       </c>
       <c r="T3">
-        <v>9.951620292461179E-05</v>
+        <v>0.0009832070768700475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6658270000000001</v>
+        <v>245.845932</v>
       </c>
       <c r="H4">
-        <v>1.997481</v>
+        <v>737.537796</v>
       </c>
       <c r="I4">
-        <v>0.002619014661824084</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J4">
-        <v>0.002619014661824084</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02449766666666666</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N4">
-        <v>0.07349299999999999</v>
+        <v>0.005813</v>
       </c>
       <c r="O4">
-        <v>0.0113096481102548</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P4">
-        <v>0.0113096481102548</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q4">
-        <v>0.01631120790366667</v>
+        <v>0.4763674675719999</v>
       </c>
       <c r="R4">
-        <v>0.146800871133</v>
+        <v>4.287307208147999</v>
       </c>
       <c r="S4">
-        <v>2.962013422082835E-05</v>
+        <v>0.02151475902215415</v>
       </c>
       <c r="T4">
-        <v>2.962013422082835E-05</v>
+        <v>0.02151475902215415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,13 +723,13 @@
         <v>245.845932</v>
       </c>
       <c r="H5">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I5">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J5">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.059282</v>
+        <v>0.082306</v>
       </c>
       <c r="N5">
-        <v>6.177846</v>
+        <v>0.246918</v>
       </c>
       <c r="O5">
-        <v>0.9506927780787987</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P5">
-        <v>0.9506927780787987</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q5">
-        <v>506.2661025408241</v>
+        <v>20.234595279192</v>
       </c>
       <c r="R5">
-        <v>4556.394922867416</v>
+        <v>182.111357512728</v>
       </c>
       <c r="S5">
-        <v>0.9193476042533868</v>
+        <v>0.9138794543664647</v>
       </c>
       <c r="T5">
-        <v>0.9193476042533869</v>
+        <v>0.9138794543664649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>245.845932</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H6">
-        <v>737.5377960000001</v>
+        <v>50.146756</v>
       </c>
       <c r="I6">
-        <v>0.967029123868222</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J6">
-        <v>0.9670291238682222</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,33 +800,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08230599999999999</v>
+        <v>0.001937666666666667</v>
       </c>
       <c r="N6">
-        <v>0.246918</v>
+        <v>0.005813</v>
       </c>
       <c r="O6">
-        <v>0.03799757381094653</v>
+        <v>0.0230007399171451</v>
       </c>
       <c r="P6">
-        <v>0.03799757381094653</v>
+        <v>0.02300073991714511</v>
       </c>
       <c r="Q6">
-        <v>20.234595279192</v>
+        <v>0.03238923251422222</v>
       </c>
       <c r="R6">
-        <v>182.111357512728</v>
+        <v>0.2915030926279999</v>
       </c>
       <c r="S6">
-        <v>0.03674476051151773</v>
+        <v>0.001462834009231932</v>
       </c>
       <c r="T6">
-        <v>0.03674476051151773</v>
+        <v>0.001462834009231932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>245.845932</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H7">
-        <v>737.5377960000001</v>
+        <v>50.146756</v>
       </c>
       <c r="I7">
-        <v>0.967029123868222</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J7">
-        <v>0.9670291238682222</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,214 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02449766666666666</v>
+        <v>0.082306</v>
       </c>
       <c r="N7">
-        <v>0.07349299999999999</v>
+        <v>0.246918</v>
       </c>
       <c r="O7">
-        <v>0.0113096481102548</v>
+        <v>0.9769992600828549</v>
       </c>
       <c r="P7">
-        <v>0.0113096481102548</v>
+        <v>0.976999260082855</v>
       </c>
       <c r="Q7">
-        <v>6.022651693492</v>
+        <v>1.375792966445333</v>
       </c>
       <c r="R7">
-        <v>54.203865241428</v>
+        <v>12.382136698008</v>
       </c>
       <c r="S7">
-        <v>0.01093675910331759</v>
+        <v>0.06213659863952009</v>
       </c>
       <c r="T7">
-        <v>0.01093675910331759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.716294666666666</v>
-      </c>
-      <c r="H8">
-        <v>23.148884</v>
-      </c>
-      <c r="I8">
-        <v>0.03035186146995387</v>
-      </c>
-      <c r="J8">
-        <v>0.03035186146995388</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>2.059282</v>
-      </c>
-      <c r="N8">
-        <v>6.177846</v>
-      </c>
-      <c r="O8">
-        <v>0.9506927780787987</v>
-      </c>
-      <c r="P8">
-        <v>0.9506927780787987</v>
-      </c>
-      <c r="Q8">
-        <v>15.89002671376267</v>
-      </c>
-      <c r="R8">
-        <v>143.010240423864</v>
-      </c>
-      <c r="S8">
-        <v>0.0288552955007333</v>
-      </c>
-      <c r="T8">
-        <v>0.0288552955007333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.716294666666666</v>
-      </c>
-      <c r="H9">
-        <v>23.148884</v>
-      </c>
-      <c r="I9">
-        <v>0.03035186146995387</v>
-      </c>
-      <c r="J9">
-        <v>0.03035186146995388</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.08230599999999999</v>
-      </c>
-      <c r="N9">
-        <v>0.246918</v>
-      </c>
-      <c r="O9">
-        <v>0.03799757381094653</v>
-      </c>
-      <c r="P9">
-        <v>0.03799757381094653</v>
-      </c>
-      <c r="Q9">
-        <v>0.6350973488346665</v>
-      </c>
-      <c r="R9">
-        <v>5.715876139511999</v>
-      </c>
-      <c r="S9">
-        <v>0.001153297096504196</v>
-      </c>
-      <c r="T9">
-        <v>0.001153297096504197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>7.716294666666666</v>
-      </c>
-      <c r="H10">
-        <v>23.148884</v>
-      </c>
-      <c r="I10">
-        <v>0.03035186146995387</v>
-      </c>
-      <c r="J10">
-        <v>0.03035186146995388</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.02449766666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.07349299999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="P10">
-        <v>0.0113096481102548</v>
-      </c>
-      <c r="Q10">
-        <v>0.1890312146457777</v>
-      </c>
-      <c r="R10">
-        <v>1.701280931812</v>
-      </c>
-      <c r="S10">
-        <v>0.0003432688727163791</v>
-      </c>
-      <c r="T10">
-        <v>0.0003432688727163792</v>
+        <v>0.0621365986395201</v>
       </c>
     </row>
   </sheetData>
